--- a/database/ROOM_CHARACTERISTICS.xlsx
+++ b/database/ROOM_CHARACTERISTICS.xlsx
@@ -19,7 +19,7 @@
     <t>floor</t>
   </si>
   <si>
-    <t xml:space="preserve">type </t>
+    <t>type_</t>
   </si>
   <si>
     <t>capacity</t>
